--- a/data/trans_orig/P14A27-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A27-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6999A1E2-2019-4016-BB79-6A7B283953C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9AC4AD2-D69D-43F3-B02B-F81FE3D6921B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED865212-6D6F-4A6C-8B31-9ADBF5610E7F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08697386-2310-40C4-B9E8-38B873CABA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="210">
   <si>
     <t>Población que recibe medicación o terapia por cataratas en 2012 (Tasa respuesta: 2,23%)</t>
   </si>
@@ -117,55 +117,55 @@
     <t>44,98%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
   </si>
   <si>
     <t>38,14%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
   </si>
   <si>
     <t>41,0%</t>
   </si>
   <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
   </si>
   <si>
     <t>55,02%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>61,86%</t>
   </si>
   <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>59,0%</t>
   </si>
   <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -174,55 +174,55 @@
     <t>30,94%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
   </si>
   <si>
     <t>59,77%</t>
   </si>
   <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
   </si>
   <si>
     <t>69,06%</t>
   </si>
   <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
   </si>
   <si>
     <t>52,64%</t>
   </si>
   <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -231,55 +231,49 @@
     <t>50,82%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
   </si>
   <si>
     <t>45,29%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
   </si>
   <si>
     <t>47,37%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
   </si>
   <si>
     <t>49,18%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>54,71%</t>
   </si>
   <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
+    <t>79,2%</t>
   </si>
   <si>
     <t>52,63%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>31,92%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -288,109 +282,109 @@
     <t>13,99%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>35,75%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
   </si>
   <si>
     <t>86,01%</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>64,25%</t>
   </si>
   <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
   </si>
   <si>
     <t>45,48%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
   </si>
   <si>
     <t>54,52%</t>
   </si>
   <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -426,10 +420,10 @@
     <t>38,75%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>42,4%</t>
@@ -444,19 +438,19 @@
     <t>41,13%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
   </si>
   <si>
     <t>61,25%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>57,6%</t>
@@ -471,10 +465,10 @@
     <t>58,87%</t>
   </si>
   <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>78,1%</t>
@@ -486,19 +480,19 @@
     <t>37,25%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
   </si>
   <si>
     <t>21,9%</t>
@@ -510,169 +504,169 @@
     <t>62,75%</t>
   </si>
   <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>49,65%</t>
   </si>
   <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>65,8%</t>
+    <t>62,83%</t>
   </si>
   <si>
     <t>73,04%</t>
   </si>
   <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>57,78%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
   </si>
   <si>
     <t>76,56%</t>
   </si>
   <si>
-    <t>34,2%</t>
+    <t>37,17%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
   </si>
   <si>
     <t>42,22%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>38,05%</t>
+    <t>41,27%</t>
   </si>
   <si>
     <t>31,18%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>61,95%</t>
+    <t>58,73%</t>
   </si>
   <si>
     <t>68,82%</t>
   </si>
   <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C273BDA-EBAC-4F0E-B256-6EE6F8E34F86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEFCE43-1A17-4470-91E1-9D36E7E38AB4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1742,10 +1736,10 @@
         <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -1754,13 +1748,13 @@
         <v>14327</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,7 +1810,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1828,13 +1822,13 @@
         <v>2993</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1843,13 +1837,13 @@
         <v>9807</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -1858,13 +1852,13 @@
         <v>12800</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,13 +1873,13 @@
         <v>18395</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -1894,13 +1888,13 @@
         <v>17624</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -1909,13 +1903,13 @@
         <v>36019</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1977,13 @@
         <v>20823</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -1998,13 +1992,13 @@
         <v>42341</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -2013,13 +2007,13 @@
         <v>63164</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2028,13 @@
         <v>47159</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -2049,13 +2043,13 @@
         <v>50755</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>88</v>
@@ -2064,13 +2058,13 @@
         <v>97914</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,7 +2120,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AC10C5-FCDF-4D9A-8229-6B72426EB15A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425BD113-6B9B-4141-8B54-AC1B7F726CF9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2164,7 +2158,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2271,7 +2265,7 @@
         <v>878</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -2286,7 +2280,7 @@
         <v>1164</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -2301,13 +2295,13 @@
         <v>2041</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,7 +2316,7 @@
         <v>1079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -2337,7 +2331,7 @@
         <v>1865</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -2352,10 +2346,10 @@
         <v>2944</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -2426,13 +2420,13 @@
         <v>2750</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2441,13 +2435,13 @@
         <v>5641</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2456,13 +2450,13 @@
         <v>8391</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,13 +2471,13 @@
         <v>4348</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -2492,13 +2486,13 @@
         <v>7661</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -2507,13 +2501,13 @@
         <v>12009</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,10 +2575,10 @@
         <v>6342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -2596,13 +2590,13 @@
         <v>6403</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2611,13 +2605,13 @@
         <v>12745</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2626,13 @@
         <v>1778</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2647,13 +2641,13 @@
         <v>10788</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -2662,13 +2656,13 @@
         <v>12566</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2730,13 @@
         <v>1683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2751,13 +2745,13 @@
         <v>11809</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2766,13 +2760,13 @@
         <v>13491</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,10 +2781,10 @@
         <v>5498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -2802,13 +2796,13 @@
         <v>4360</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2817,13 +2811,13 @@
         <v>9858</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,7 +2873,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2891,13 +2885,13 @@
         <v>1059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2906,13 +2900,13 @@
         <v>9594</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2921,13 +2915,13 @@
         <v>10653</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,10 +2936,10 @@
         <v>9973</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -2957,13 +2951,13 @@
         <v>21181</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -2972,13 +2966,13 @@
         <v>31154</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3040,13 @@
         <v>12712</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -3061,13 +3055,13 @@
         <v>34610</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -3076,13 +3070,13 @@
         <v>47323</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3091,13 @@
         <v>22676</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -3112,13 +3106,13 @@
         <v>45855</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -3127,13 +3121,13 @@
         <v>68530</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,7 +3183,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A27-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A27-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9AC4AD2-D69D-43F3-B02B-F81FE3D6921B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF5836A6-69A0-4A8B-B562-5CA2AEAD59DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08697386-2310-40C4-B9E8-38B873CABA1B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8ADFA84-0006-4C74-9381-BC4404772824}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="208">
   <si>
     <t>Población que recibe medicación o terapia por cataratas en 2012 (Tasa respuesta: 2,23%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -90,9 +90,6 @@
     <t>27,97%</t>
   </si>
   <si>
-    <t>90,56%</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -108,172 +105,175 @@
     <t>72,03%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>44,98%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
   </si>
   <si>
     <t>38,14%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
   </si>
   <si>
     <t>41,0%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
   </si>
   <si>
     <t>55,02%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>61,86%</t>
   </si>
   <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
   </si>
   <si>
     <t>59,0%</t>
   </si>
   <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
   </si>
   <si>
     <t>59,77%</t>
   </si>
   <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
   </si>
   <si>
     <t>69,06%</t>
   </si>
   <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
   </si>
   <si>
     <t>52,64%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>50,82%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>45,29%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>47,37%</t>
   </si>
   <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
   </si>
   <si>
     <t>49,18%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
   </si>
   <si>
     <t>54,71%</t>
   </si>
   <si>
-    <t>79,2%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
   </si>
   <si>
     <t>52,63%</t>
   </si>
   <si>
-    <t>31,92%</t>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -282,115 +282,109 @@
     <t>13,99%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
   </si>
   <si>
     <t>35,75%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
   </si>
   <si>
     <t>86,01%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>64,25%</t>
   </si>
   <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
   </si>
   <si>
     <t>45,48%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
+    <t>47,54%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
   </si>
   <si>
     <t>54,52%</t>
   </si>
   <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
+    <t>52,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por cataratas en 2015 (Tasa respuesta: 1,64%)</t>
+    <t>Población que recibe medicación o terapia por cataratas en 2016 (Tasa respuesta: 1,64%)</t>
   </si>
   <si>
     <t>44,85%</t>
@@ -402,7 +396,7 @@
     <t>40,95%</t>
   </si>
   <si>
-    <t>82,15%</t>
+    <t>81,99%</t>
   </si>
   <si>
     <t>55,15%</t>
@@ -414,259 +408,259 @@
     <t>59,05%</t>
   </si>
   <si>
-    <t>17,85%</t>
+    <t>18,01%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>42,4%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>41,13%</t>
   </si>
   <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
   </si>
   <si>
     <t>61,25%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
   </si>
   <si>
     <t>57,6%</t>
   </si>
   <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>58,87%</t>
   </si>
   <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>78,1%</t>
   </si>
   <si>
-    <t>44,64%</t>
+    <t>43,85%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>55,36%</t>
+    <t>56,15%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>49,65%</t>
   </si>
   <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>62,83%</t>
+    <t>69,26%</t>
   </si>
   <si>
     <t>73,04%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>57,78%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>76,56%</t>
   </si>
   <si>
-    <t>37,17%</t>
+    <t>30,74%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
   </si>
   <si>
     <t>42,22%</t>
   </si>
   <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>41,27%</t>
+    <t>43,81%</t>
   </si>
   <si>
     <t>31,18%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>58,73%</t>
+    <t>56,19%</t>
   </si>
   <si>
     <t>68,82%</t>
   </si>
   <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEFCE43-1A17-4470-91E1-9D36E7E38AB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F4E2A2-96EC-40CD-8E4F-4CCCB011C5F8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1238,13 +1232,13 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -1256,10 +1250,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1268,7 +1262,7 @@
         <v>970</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -1283,10 +1277,10 @@
         <v>2711</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -1304,13 +1298,13 @@
         <v>1741</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1319,13 +1313,13 @@
         <v>2023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -1334,18 +1328,18 @@
         <v>3764</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1357,13 +1351,13 @@
         <v>6140</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1372,13 +1366,13 @@
         <v>7227</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1387,19 +1381,19 @@
         <v>13367</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -1408,13 +1402,13 @@
         <v>7511</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -1423,13 +1417,13 @@
         <v>11723</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -1438,13 +1432,13 @@
         <v>19234</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1453,13 @@
         <v>13651</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -1474,13 +1468,13 @@
         <v>18950</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -1489,18 +1483,18 @@
         <v>32601</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1512,13 +1506,13 @@
         <v>6485</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -1527,13 +1521,13 @@
         <v>16565</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -1542,19 +1536,19 @@
         <v>23049</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>12</v>
@@ -1563,13 +1557,13 @@
         <v>14475</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -1578,13 +1572,13 @@
         <v>11148</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -1593,13 +1587,13 @@
         <v>25624</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1608,13 @@
         <v>20960</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -1629,13 +1623,13 @@
         <v>27713</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -1644,18 +1638,18 @@
         <v>48673</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1667,13 +1661,13 @@
         <v>5205</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -1682,13 +1676,13 @@
         <v>7689</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1697,19 +1691,19 @@
         <v>12894</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
@@ -1718,13 +1712,13 @@
         <v>5037</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -1733,13 +1727,13 @@
         <v>9290</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -1748,13 +1742,13 @@
         <v>14327</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1763,13 @@
         <v>10242</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -1784,13 +1778,13 @@
         <v>16979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -1799,13 +1793,13 @@
         <v>27221</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,7 +1858,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <v>16</v>
@@ -1924,13 +1918,13 @@
         <v>21388</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -1939,13 +1933,13 @@
         <v>27431</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -1954,13 +1948,13 @@
         <v>48819</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,16 +2004,16 @@
         <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>42</v>
@@ -2028,13 +2022,13 @@
         <v>47159</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -2043,13 +2037,13 @@
         <v>50755</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>88</v>
@@ -2058,13 +2052,13 @@
         <v>97914</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,13 +2073,13 @@
         <v>67982</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -2094,13 +2088,13 @@
         <v>93096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>145</v>
@@ -2109,18 +2103,18 @@
         <v>161078</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2141,7 +2135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425BD113-6B9B-4141-8B54-AC1B7F726CF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF690700-961B-4DD5-831C-AF3EDA3D25D7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2158,7 +2152,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2265,7 +2259,7 @@
         <v>878</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -2280,7 +2274,7 @@
         <v>1164</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -2295,19 +2289,19 @@
         <v>2041</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -2316,7 +2310,7 @@
         <v>1079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -2331,7 +2325,7 @@
         <v>1865</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -2346,10 +2340,10 @@
         <v>2944</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>15</v>
@@ -2367,13 +2361,13 @@
         <v>1957</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -2382,13 +2376,13 @@
         <v>3029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -2397,18 +2391,18 @@
         <v>4985</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2420,13 +2414,13 @@
         <v>2750</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2435,13 +2429,13 @@
         <v>5641</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2450,19 +2444,19 @@
         <v>8391</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -2471,13 +2465,13 @@
         <v>4348</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -2486,13 +2480,13 @@
         <v>7661</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -2501,13 +2495,13 @@
         <v>12009</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2516,13 @@
         <v>7098</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -2537,13 +2531,13 @@
         <v>13302</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -2552,18 +2546,18 @@
         <v>20400</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2575,10 +2569,10 @@
         <v>6342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -2590,13 +2584,13 @@
         <v>6403</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2605,19 +2599,19 @@
         <v>12745</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -2626,13 +2620,13 @@
         <v>1778</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2641,13 +2635,13 @@
         <v>10788</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -2656,13 +2650,13 @@
         <v>12566</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2671,13 @@
         <v>8120</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -2692,13 +2686,13 @@
         <v>17191</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -2707,18 +2701,18 @@
         <v>25311</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2730,13 +2724,13 @@
         <v>1683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2745,13 +2739,13 @@
         <v>11809</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2760,19 +2754,19 @@
         <v>13491</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
@@ -2781,10 +2775,10 @@
         <v>5498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -2796,13 +2790,13 @@
         <v>4360</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2811,13 +2805,13 @@
         <v>9858</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2826,13 @@
         <v>7181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -2847,13 +2841,13 @@
         <v>16169</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -2862,13 +2856,13 @@
         <v>23349</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2879,13 @@
         <v>1059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2900,13 +2894,13 @@
         <v>9594</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2915,19 +2909,19 @@
         <v>10653</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <v>11</v>
@@ -2936,10 +2930,10 @@
         <v>9973</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -2951,13 +2945,13 @@
         <v>21181</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -2966,13 +2960,13 @@
         <v>31154</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2981,13 @@
         <v>11032</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -3002,13 +2996,13 @@
         <v>30775</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -3017,13 +3011,13 @@
         <v>41807</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3034,13 @@
         <v>12712</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -3055,13 +3049,13 @@
         <v>34610</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -3070,19 +3064,19 @@
         <v>47323</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>24</v>
@@ -3091,13 +3085,13 @@
         <v>22676</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -3106,13 +3100,13 @@
         <v>45855</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -3121,13 +3115,13 @@
         <v>68530</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3136,13 @@
         <v>35388</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>70</v>
@@ -3157,13 +3151,13 @@
         <v>80465</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>108</v>
@@ -3172,18 +3166,18 @@
         <v>115853</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
